--- a/data/URAV_BAL_out.xlsx
+++ b/data/URAV_BAL_out.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Работа\2024\ПС 500 Шахты\ImportShachti\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1246">
   <si>
     <t>КПР-1 «Север»</t>
   </si>
@@ -33,78 +33,276 @@
     <t>2130+0,74(Д-100)</t>
   </si>
   <si>
+    <t>2230+0,74(Д-100)</t>
+  </si>
+  <si>
+    <t>2330+0,74(Д-100)</t>
+  </si>
+  <si>
+    <t>2430+0,74(Д-100)</t>
+  </si>
+  <si>
+    <t>2530+0,74(Д-100)</t>
+  </si>
+  <si>
+    <t>2630+0,74(Д-100)</t>
+  </si>
+  <si>
+    <t>с шагом 100</t>
+  </si>
+  <si>
     <t>КПР-2 «Север»</t>
   </si>
   <si>
     <t>3760+0,35(Д-2700)</t>
   </si>
   <si>
+    <t>3860+0,35(Д-2700)</t>
+  </si>
+  <si>
+    <t>3960+0,35(Д-2700)</t>
+  </si>
+  <si>
+    <t>4060+0,35(Д-2700)</t>
+  </si>
+  <si>
+    <t>4160+0,35(Д-2700)</t>
+  </si>
+  <si>
+    <t>4260+0,35(Д-2700)</t>
+  </si>
+  <si>
     <t>КПР-3 «Север»</t>
   </si>
   <si>
     <t>2600+0,67(Д-40)</t>
   </si>
   <si>
+    <t>2700+0,67(Д-40)</t>
+  </si>
+  <si>
+    <t>2800+0,67(Д-40)</t>
+  </si>
+  <si>
+    <t>2900+0,67(Д-40)</t>
+  </si>
+  <si>
+    <t>3000+0,67(Д-40)</t>
+  </si>
+  <si>
+    <t>3100+0,67(Д-40)</t>
+  </si>
+  <si>
     <t>КПР-4 «Север»</t>
   </si>
   <si>
     <t>1940+0,77*Д</t>
   </si>
   <si>
+    <t>2040+0,77*Д</t>
+  </si>
+  <si>
+    <t>2140+0,77*Д</t>
+  </si>
+  <si>
+    <t>2240+0,77*Д</t>
+  </si>
+  <si>
+    <t>2340+0,77*Д</t>
+  </si>
+  <si>
+    <t>2440+0,77*Д</t>
+  </si>
+  <si>
     <t>КПР-5 «Север»</t>
   </si>
   <si>
     <t>3460-0,37(Д-2420)</t>
   </si>
   <si>
+    <t>3560-0,37(Д-2420)</t>
+  </si>
+  <si>
+    <t>3660-0,37(Д-2420)</t>
+  </si>
+  <si>
+    <t>3760-0,37(Д-2420)</t>
+  </si>
+  <si>
+    <t>3860-0,37(Д-2420)</t>
+  </si>
+  <si>
+    <t>3960-0,37(Д-2420)</t>
+  </si>
+  <si>
     <t>КПР-6 «Север»</t>
   </si>
   <si>
     <t>2150+0,79(Д-100)</t>
   </si>
   <si>
+    <t>2250+0,79(Д-100)</t>
+  </si>
+  <si>
+    <t>2350+0,79(Д-100)</t>
+  </si>
+  <si>
+    <t>2450+0,79(Д-100)</t>
+  </si>
+  <si>
+    <t>2550+0,79(Д-100)</t>
+  </si>
+  <si>
+    <t>2650+0,79(Д-100)</t>
+  </si>
+  <si>
     <t>КПР-7 «Север»</t>
   </si>
   <si>
     <t>3860+0,25(Д-2690)</t>
   </si>
   <si>
+    <t>3960+0,25(Д-2690)</t>
+  </si>
+  <si>
+    <t>4060+0,25(Д-2690)</t>
+  </si>
+  <si>
+    <t>4160+0,25(Д-2690)</t>
+  </si>
+  <si>
+    <t>4260+0,25(Д-2690)</t>
+  </si>
+  <si>
+    <t>4360+0,25(Д-2690)</t>
+  </si>
+  <si>
     <t>КПР-8 «Север»</t>
   </si>
   <si>
     <t>2760-0,41(Д-2820)</t>
   </si>
   <si>
+    <t>2860-0,41(Д-2820)</t>
+  </si>
+  <si>
+    <t>2960-0,41(Д-2820)</t>
+  </si>
+  <si>
+    <t>3060-0,41(Д-2820)</t>
+  </si>
+  <si>
+    <t>3160-0,41(Д-2820)</t>
+  </si>
+  <si>
+    <t>3260-0,41(Д-2820)</t>
+  </si>
+  <si>
     <t>КПР-9 «Север»</t>
   </si>
   <si>
     <t>570+2,84(Д-190)</t>
   </si>
   <si>
+    <t>580+2,84(Д-190)</t>
+  </si>
+  <si>
+    <t>590+2,84(Д-190)</t>
+  </si>
+  <si>
+    <t>600+2,84(Д-190)</t>
+  </si>
+  <si>
+    <t>610+2,84(Д-190)</t>
+  </si>
+  <si>
+    <t>620+2,84(Д-190)</t>
+  </si>
+  <si>
     <t>КПР-10 «Север»</t>
   </si>
   <si>
     <t>2020+0,78*Д</t>
   </si>
   <si>
+    <t>2120+0,78*Д</t>
+  </si>
+  <si>
+    <t>2220+0,78*Д</t>
+  </si>
+  <si>
+    <t>2320+0,78*Д</t>
+  </si>
+  <si>
+    <t>2420+0,78*Д</t>
+  </si>
+  <si>
+    <t>2520+0,78*Д</t>
+  </si>
+  <si>
     <t>КПР-11 «Север»</t>
   </si>
   <si>
     <t>1720-0,55(Д-2530)</t>
   </si>
   <si>
+    <t>1820-0,55(Д-2530)</t>
+  </si>
+  <si>
+    <t>1920-0,55(Д-2530)</t>
+  </si>
+  <si>
+    <t>2020-0,55(Д-2530)</t>
+  </si>
+  <si>
+    <t>2120-0,55(Д-2530)</t>
+  </si>
+  <si>
+    <t>2220-0,55(Д-2530)</t>
+  </si>
+  <si>
     <t>КПР-12 «Север»</t>
   </si>
   <si>
     <t>3610-0,38(Д-2310)</t>
   </si>
   <si>
+    <t>3710-0,38(Д-2310)</t>
+  </si>
+  <si>
+    <t>3810-0,38(Д-2310)</t>
+  </si>
+  <si>
+    <t>3910-0,38(Д-2310)</t>
+  </si>
+  <si>
+    <t>4010-0,38(Д-2310)</t>
+  </si>
+  <si>
+    <t>4110-0,38(Д-2310)</t>
+  </si>
+  <si>
     <t>КПР-13 «Север»</t>
   </si>
   <si>
     <t>2000+0,88*Д</t>
   </si>
   <si>
+    <t>2100+0,88*Д</t>
+  </si>
+  <si>
+    <t>2200+0,88*Д</t>
+  </si>
+  <si>
+    <t>2300+0,88*Д</t>
+  </si>
+  <si>
+    <t>2400+0,88*Д</t>
+  </si>
+  <si>
+    <t>2500+0,88*Д</t>
+  </si>
+  <si>
     <t>КПР-14 «Север»</t>
   </si>
   <si>
@@ -133,30 +331,215 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>1880+2,5(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1980+2,5(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2080+2,5(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2180+2,5(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2280+2,5(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-15 «Север»</t>
   </si>
   <si>
     <t>2780-0,19(Д-2500)</t>
   </si>
   <si>
+    <t>2880-0,19(Д-2500)</t>
+  </si>
+  <si>
+    <t>2980-0,19(Д-2500)</t>
+  </si>
+  <si>
+    <t>3080-0,19(Д-2500)</t>
+  </si>
+  <si>
+    <t>3180-0,19(Д-2500)</t>
+  </si>
+  <si>
+    <t>3280-0,19(Д-2500)</t>
+  </si>
+  <si>
     <t>КПР-16 «Север»</t>
   </si>
   <si>
     <t>3630-0,37(Д-2400)</t>
   </si>
   <si>
+    <t>3730-0,37(Д-2400)</t>
+  </si>
+  <si>
+    <t>3830-0,37(Д-2400)</t>
+  </si>
+  <si>
+    <t>3930-0,37(Д-2400)</t>
+  </si>
+  <si>
+    <t>4030-0,37(Д-2400)</t>
+  </si>
+  <si>
+    <t>4130-0,37(Д-2400)</t>
+  </si>
+  <si>
     <t>КПР-17 «Север»</t>
   </si>
   <si>
     <t>2020-0,87*Д</t>
   </si>
   <si>
+    <t>2120-0,87*Д</t>
+  </si>
+  <si>
+    <t>2220-0,87*Д</t>
+  </si>
+  <si>
+    <t>2320-0,87*Д</t>
+  </si>
+  <si>
+    <t>2420-0,87*Д</t>
+  </si>
+  <si>
+    <t>2520-0,87*Д</t>
+  </si>
+  <si>
     <t>КПР-18 «Север»</t>
   </si>
   <si>
     <t>2880-0,4(Д-2500)</t>
   </si>
   <si>
+    <t>2980-0,4(Д-2500)</t>
+  </si>
+  <si>
+    <t>3080-0,4(Д-2500)</t>
+  </si>
+  <si>
+    <t>3180-0,4(Д-2500)</t>
+  </si>
+  <si>
+    <t>3280-0,4(Д-2500)</t>
+  </si>
+  <si>
+    <t>3380-0,4(Д-2500)</t>
+  </si>
+  <si>
     <t>КПР-19 «Север»</t>
   </si>
   <si>
@@ -175,6 +558,81 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>1830+2,49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-40)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1930+2,49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-40)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2030+2,49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-40)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2130+2,49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-40)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2230+2,49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-40)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-20 «Север»</t>
   </si>
   <si>
@@ -193,66 +651,288 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>3830-0,4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3930-0,4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4030-0,4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4130-0,4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4230-0,4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2400)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-21 «Север»</t>
   </si>
   <si>
     <t>2040+0,82(Д-110)</t>
   </si>
   <si>
+    <t>2140+0,82(Д-110)</t>
+  </si>
+  <si>
+    <t>2240+0,82(Д-110)</t>
+  </si>
+  <si>
+    <t>2340+0,82(Д-110)</t>
+  </si>
+  <si>
+    <t>2440+0,82(Д-110)</t>
+  </si>
+  <si>
+    <t>2540+0,82(Д-110)</t>
+  </si>
+  <si>
     <t>КПР-22 «Север»</t>
   </si>
   <si>
     <t>2550+0,67(Д-50)</t>
   </si>
   <si>
+    <t>2650+0,67(Д-50)</t>
+  </si>
+  <si>
+    <t>2750+0,67(Д-50)</t>
+  </si>
+  <si>
+    <t>2850+0,67(Д-50)</t>
+  </si>
+  <si>
+    <t>2950+0,67(Д-50)</t>
+  </si>
+  <si>
+    <t>3050+0,67(Д-50)</t>
+  </si>
+  <si>
     <t>КПР-23 «Север»</t>
   </si>
   <si>
     <t>3770+0,23(Д-2680)</t>
   </si>
   <si>
+    <t>3870+0,23(Д-2680)</t>
+  </si>
+  <si>
+    <t>3970+0,23(Д-2680)</t>
+  </si>
+  <si>
+    <t>4070+0,23(Д-2680)</t>
+  </si>
+  <si>
+    <t>4170+0,23(Д-2680)</t>
+  </si>
+  <si>
+    <t>4270+0,23(Д-2680)</t>
+  </si>
+  <si>
     <t>КПР-24 «Север»</t>
   </si>
   <si>
     <t>1890+0,78*Д</t>
   </si>
   <si>
+    <t>1990+0,78*Д</t>
+  </si>
+  <si>
+    <t>2090+0,78*Д</t>
+  </si>
+  <si>
+    <t>2190+0,78*Д</t>
+  </si>
+  <si>
+    <t>2290+0,78*Д</t>
+  </si>
+  <si>
+    <t>2390+0,78*Д</t>
+  </si>
+  <si>
     <t>КПР-25 «Север»</t>
   </si>
   <si>
     <t>3450-0,38(Д-2410)</t>
   </si>
   <si>
+    <t>3550-0,38(Д-2410)</t>
+  </si>
+  <si>
+    <t>3650-0,38(Д-2410)</t>
+  </si>
+  <si>
+    <t>3750-0,38(Д-2410)</t>
+  </si>
+  <si>
+    <t>3850-0,38(Д-2410)</t>
+  </si>
+  <si>
     <t>КПР-26 «Север»</t>
   </si>
   <si>
     <t>2700+0,43(Д-2810)</t>
   </si>
   <si>
+    <t>2800+0,43(Д-2810)</t>
+  </si>
+  <si>
+    <t>2900+0,43(Д-2810)</t>
+  </si>
+  <si>
+    <t>3000+0,43(Д-2810)</t>
+  </si>
+  <si>
+    <t>3100+0,43(Д-2810)</t>
+  </si>
+  <si>
+    <t>3200+0,43(Д-2810)</t>
+  </si>
+  <si>
     <t>КПР-27 «Север»</t>
   </si>
   <si>
     <t>3050+0,11(Д-2770)</t>
   </si>
   <si>
+    <t>3150+0,11(Д-2770)</t>
+  </si>
+  <si>
+    <t>3250+0,11(Д-2770)</t>
+  </si>
+  <si>
+    <t>3350+0,11(Д-2770)</t>
+  </si>
+  <si>
+    <t>3450+0,11(Д-2770)</t>
+  </si>
+  <si>
+    <t>3550+0,11(Д-2770)</t>
+  </si>
+  <si>
     <t>КПР-28 «Север»</t>
   </si>
   <si>
     <t>2720+0,15(Д-2440)</t>
   </si>
   <si>
+    <t>2820+0,15(Д-2440)</t>
+  </si>
+  <si>
+    <t>2920+0,15(Д-2440)</t>
+  </si>
+  <si>
+    <t>3020+0,15(Д-2440)</t>
+  </si>
+  <si>
+    <t>3120+0,15(Д-2440)</t>
+  </si>
+  <si>
+    <t>3220+0,15(Д-2440)</t>
+  </si>
+  <si>
     <t>КПР-29 «Север»</t>
   </si>
   <si>
     <t>2870-0,13(Д-2430)</t>
   </si>
   <si>
+    <t>2970-0,13(Д-2430)</t>
+  </si>
+  <si>
+    <t>3070-0,13(Д-2430)</t>
+  </si>
+  <si>
+    <t>3170-0,13(Д-2430)</t>
+  </si>
+  <si>
+    <t>3270-0,13(Д-2430)</t>
+  </si>
+  <si>
+    <t>3370-0,13(Д-2430)</t>
+  </si>
+  <si>
     <t>КПР-30 «Север»</t>
   </si>
   <si>
     <t>1980+0,79(Д-110)</t>
   </si>
   <si>
+    <t>2080+0,79(Д-110)</t>
+  </si>
+  <si>
+    <t>2180+0,79(Д-110)</t>
+  </si>
+  <si>
+    <t>2280+0,79(Д-110)</t>
+  </si>
+  <si>
+    <t>2380+0,79(Д-110)</t>
+  </si>
+  <si>
+    <t>2480+0,79(Д-110)</t>
+  </si>
+  <si>
     <t>КПР-31 «Север»</t>
   </si>
   <si>
@@ -262,48 +942,168 @@
     <t>2450+0,56(Д-40)</t>
   </si>
   <si>
+    <t>2550+0,56(Д-40)</t>
+  </si>
+  <si>
+    <t>2650+0,56(Д-40)</t>
+  </si>
+  <si>
+    <t>2750+0,56(Д-40)</t>
+  </si>
+  <si>
+    <t>2850+0,56(Д-40)</t>
+  </si>
+  <si>
+    <t>2950+0,56(Д-40)</t>
+  </si>
+  <si>
     <t>КПР-33 «Север»</t>
   </si>
   <si>
     <t>2520+0,69(Д-30)</t>
   </si>
   <si>
+    <t>2620+0,69(Д-30)</t>
+  </si>
+  <si>
+    <t>2720+0,69(Д-30)</t>
+  </si>
+  <si>
+    <t>2820+0,69(Д-30)</t>
+  </si>
+  <si>
+    <t>2920+0,69(Д-30)</t>
+  </si>
+  <si>
+    <t>3020+0,69(Д-30)</t>
+  </si>
+  <si>
     <t>КПР-34 «Север»</t>
   </si>
   <si>
     <t>3120+0,48(Д-2340)</t>
   </si>
   <si>
+    <t>3220+0,48(Д-2340)</t>
+  </si>
+  <si>
+    <t>3320+0,48(Д-2340)</t>
+  </si>
+  <si>
+    <t>3420+0,48(Д-2340)</t>
+  </si>
+  <si>
+    <t>3520+0,48(Д-2340)</t>
+  </si>
+  <si>
+    <t>3620+0,48(Д-2340)</t>
+  </si>
+  <si>
     <t>КПР-35 «Север»</t>
   </si>
   <si>
     <t>3580-(Д-2280)</t>
   </si>
   <si>
+    <t>3680-(Д-2280)</t>
+  </si>
+  <si>
+    <t>3780-(Д-2280)</t>
+  </si>
+  <si>
+    <t>3880-(Д-2280)</t>
+  </si>
+  <si>
+    <t>3980-(Д-2280)</t>
+  </si>
+  <si>
+    <t>4080-(Д-2280)</t>
+  </si>
+  <si>
     <t>КПР-36 «Север»</t>
   </si>
   <si>
     <t>1840+0,8*Д</t>
   </si>
   <si>
+    <t>1940+0,8*Д</t>
+  </si>
+  <si>
+    <t>2040+0,8*Д</t>
+  </si>
+  <si>
+    <t>2140+0,8*Д</t>
+  </si>
+  <si>
+    <t>2240+0,8*Д</t>
+  </si>
+  <si>
+    <t>2340+0,8*Д</t>
+  </si>
+  <si>
     <t>КПР-37 «Север»</t>
   </si>
   <si>
     <t>2790-0,29(Д-2190)</t>
   </si>
   <si>
+    <t>2890-0,29(Д-2190)</t>
+  </si>
+  <si>
+    <t>2990-0,29(Д-2190)</t>
+  </si>
+  <si>
+    <t>3090-0,29(Д-2190)</t>
+  </si>
+  <si>
+    <t>3190-0,29(Д-2190)</t>
+  </si>
+  <si>
+    <t>3290-0,29(Д-2190)</t>
+  </si>
+  <si>
     <t>КПР-38 «Север»</t>
   </si>
   <si>
     <t>2520-2,17(Д-2200)</t>
   </si>
   <si>
+    <t>2620-2,17(Д-2200)</t>
+  </si>
+  <si>
+    <t>2720-2,17(Д-2200)</t>
+  </si>
+  <si>
+    <t>2820-2,17(Д-2200)</t>
+  </si>
+  <si>
+    <t>2920-2,17(Д-2200)</t>
+  </si>
+  <si>
+    <t>3020-2,17(Д-2200)</t>
+  </si>
+  <si>
     <t>КПР-39 «Север»</t>
   </si>
   <si>
     <t>2060+0,75(Д-100)</t>
   </si>
   <si>
+    <t>2160+0,75(Д-100)</t>
+  </si>
+  <si>
+    <t>2260+0,75(Д-100)</t>
+  </si>
+  <si>
+    <t>2360+0,75(Д-100)</t>
+  </si>
+  <si>
+    <t>2460+0,75(Д-100)</t>
+  </si>
+  <si>
+    <t>2560+0,75(Д-100)</t>
+  </si>
+  <si>
     <t>КПР-40 «Север»</t>
   </si>
   <si>
@@ -313,48 +1113,168 @@
     <t>2460+0,57(Д-50)</t>
   </si>
   <si>
+    <t>2560+0,57(Д-50)</t>
+  </si>
+  <si>
+    <t>2660+0,57(Д-50)</t>
+  </si>
+  <si>
+    <t>2760+0,57(Д-50)</t>
+  </si>
+  <si>
+    <t>2860+0,57(Д-50)</t>
+  </si>
+  <si>
+    <t>2960+0,57(Д-50)</t>
+  </si>
+  <si>
     <t>КПР-42 «Север»</t>
   </si>
   <si>
     <t>3100+0,54(Д-2350)</t>
   </si>
   <si>
+    <t>3200+0,54(Д-2350)</t>
+  </si>
+  <si>
+    <t>3300+0,54(Д-2350)</t>
+  </si>
+  <si>
+    <t>3400+0,54(Д-2350)</t>
+  </si>
+  <si>
+    <t>3500+0,54(Д-2350)</t>
+  </si>
+  <si>
+    <t>3600+0,54(Д-2350)</t>
+  </si>
+  <si>
     <t>КПР-43 «Север»</t>
   </si>
   <si>
     <t>1880+0,84*Д</t>
   </si>
   <si>
+    <t>1980+0,84*Д</t>
+  </si>
+  <si>
+    <t>2080+0,84*Д</t>
+  </si>
+  <si>
+    <t>2180+0,84*Д</t>
+  </si>
+  <si>
+    <t>2280+0,84*Д</t>
+  </si>
+  <si>
+    <t>2380+0,84*Д</t>
+  </si>
+  <si>
     <t>КПР-44 «Север»</t>
   </si>
   <si>
     <t>3110-5(Д-2050)</t>
   </si>
   <si>
+    <t>3210-5(Д-2050)</t>
+  </si>
+  <si>
+    <t>3310-5(Д-2050)</t>
+  </si>
+  <si>
+    <t>3410-5(Д-2050)</t>
+  </si>
+  <si>
+    <t>3510-5(Д-2050)</t>
+  </si>
+  <si>
+    <t>3610-5(Д-2050)</t>
+  </si>
+  <si>
     <t>КПР-45 «Север»</t>
   </si>
   <si>
     <t>2620-2,11(Д-2200)</t>
   </si>
   <si>
+    <t>2720-2,11(Д-2200)</t>
+  </si>
+  <si>
+    <t>2820-2,11(Д-2200)</t>
+  </si>
+  <si>
+    <t>2920-2,11(Д-2200)</t>
+  </si>
+  <si>
+    <t>3020-2,11(Д-2200)</t>
+  </si>
+  <si>
+    <t>3120-2,11(Д-2200)</t>
+  </si>
+  <si>
     <t>КПР-46 «Север»</t>
   </si>
   <si>
     <t>2150+0,84(Д-100)</t>
   </si>
   <si>
+    <t>2250+0,84(Д-100)</t>
+  </si>
+  <si>
+    <t>2350+0,84(Д-100)</t>
+  </si>
+  <si>
+    <t>2450+0,84(Д-100)</t>
+  </si>
+  <si>
+    <t>2550+0,84(Д-100)</t>
+  </si>
+  <si>
+    <t>2650+0,84(Д-100)</t>
+  </si>
+  <si>
     <t>КПР-47 «Север»</t>
   </si>
   <si>
     <t>3700+0,27(Д-2510)</t>
   </si>
   <si>
+    <t>3800+0,27(Д-2510)</t>
+  </si>
+  <si>
+    <t>3900+0,27(Д-2510)</t>
+  </si>
+  <si>
+    <t>4000+0,27(Д-2510)</t>
+  </si>
+  <si>
+    <t>4100+0,27(Д-2510)</t>
+  </si>
+  <si>
+    <t>4200+0,27(Д-2510)</t>
+  </si>
+  <si>
     <t>КПР-48 «Север»</t>
   </si>
   <si>
     <t>4110-0,36(Д-2520)</t>
   </si>
   <si>
+    <t>4210-0,36(Д-2520)</t>
+  </si>
+  <si>
+    <t>4310-0,36(Д-2520)</t>
+  </si>
+  <si>
+    <t>4410-0,36(Д-2520)</t>
+  </si>
+  <si>
+    <t>4510-0,36(Д-2520)</t>
+  </si>
+  <si>
+    <t>4610-0,36(Д-2520)</t>
+  </si>
+  <si>
     <t>КПР-49 «Север»</t>
   </si>
   <si>
@@ -364,6 +1284,21 @@
     <t>2030+0,84(Д-100)</t>
   </si>
   <si>
+    <t>2130+0,84(Д-100)</t>
+  </si>
+  <si>
+    <t>2230+0,84(Д-100)</t>
+  </si>
+  <si>
+    <t>2330+0,84(Д-100)</t>
+  </si>
+  <si>
+    <t>2430+0,84(Д-100)</t>
+  </si>
+  <si>
+    <t>2530+0,84(Д-100)</t>
+  </si>
+  <si>
     <t>КПР-51 «Север»</t>
   </si>
   <si>
@@ -392,36 +1327,236 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>3550-0,37(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2310</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3650-0,37(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2310</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3750-0,37(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2310</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3850-0,37(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2310</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3950-0,37(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2310</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-52 «Север»</t>
   </si>
   <si>
     <t>2170+0,78(Д-110)</t>
   </si>
   <si>
+    <t>2270+0,78(Д-110)</t>
+  </si>
+  <si>
+    <t>2370+0,78(Д-110)</t>
+  </si>
+  <si>
+    <t>2470+0,78(Д-110)</t>
+  </si>
+  <si>
+    <t>2570+0,78(Д-110)</t>
+  </si>
+  <si>
+    <t>2670+0,78(Д-110)</t>
+  </si>
+  <si>
     <t>КПР-53 «Север»</t>
   </si>
   <si>
     <t>3490+0,08(Д-2290)</t>
   </si>
   <si>
+    <t>3590+0,08(Д-2290)</t>
+  </si>
+  <si>
+    <t>3690+0,08(Д-2290)</t>
+  </si>
+  <si>
+    <t>3790+0,08(Д-2290)</t>
+  </si>
+  <si>
+    <t>3890+0,08(Д-2290)</t>
+  </si>
+  <si>
+    <t>3990+0,08(Д-2290)</t>
+  </si>
+  <si>
     <t>КПР-54 «Север»</t>
   </si>
   <si>
     <t>3580+0,38(Д-2280)</t>
   </si>
   <si>
+    <t>3680+0,38(Д-2280)</t>
+  </si>
+  <si>
+    <t>3780+0,38(Д-2280)</t>
+  </si>
+  <si>
+    <t>3880+0,38(Д-2280)</t>
+  </si>
+  <si>
+    <t>3980+0,38(Д-2280)</t>
+  </si>
+  <si>
+    <t>4080+0,38(Д-2280)</t>
+  </si>
+  <si>
     <t>КПР-55 «Север»</t>
   </si>
   <si>
     <t>3890-0,48(Д-2230)</t>
   </si>
   <si>
+    <t>3990-0,48(Д-2230)</t>
+  </si>
+  <si>
+    <t>4090-0,48(Д-2230)</t>
+  </si>
+  <si>
+    <t>4190-0,48(Д-2230)</t>
+  </si>
+  <si>
+    <t>4290-0,48(Д-2230)</t>
+  </si>
+  <si>
+    <t>4390-0,48(Д-2230)</t>
+  </si>
+  <si>
     <t>КПР-56 «Север»</t>
   </si>
   <si>
     <t>3520-0,75(Д-2290)</t>
   </si>
   <si>
+    <t>3620-0,75(Д-2290)</t>
+  </si>
+  <si>
+    <t>3720-0,75(Д-2290)</t>
+  </si>
+  <si>
+    <t>3820-0,75(Д-2290)</t>
+  </si>
+  <si>
+    <t>3920-0,75(Д-2290)</t>
+  </si>
+  <si>
+    <t>4020-0,75(Д-2290)</t>
+  </si>
+  <si>
     <t>КПР-57 «Север»</t>
   </si>
   <si>
@@ -440,6 +1575,81 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>2080+0,81(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д+10)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2180+0,81(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д+10)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2280+0,81(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д+10)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2380+0,81(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д+10)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2480+0,81(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д+10)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-58 «Север»</t>
   </si>
   <si>
@@ -458,6 +1668,81 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>3330-0,39(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3430-0,39(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3530-0,39(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3630-0,39(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3730-0,39(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-59 «Север»</t>
   </si>
   <si>
@@ -496,30 +1781,265 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>3120-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2,32(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2430</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3220-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2,32(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2430</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3320-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2,32(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2430</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3420-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2,32(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2430</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3520-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2,32(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2430</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-60 «Север»</t>
   </si>
   <si>
     <t>2140+0,74(Д-100)</t>
   </si>
   <si>
+    <t>2240+0,74(Д-100)</t>
+  </si>
+  <si>
+    <t>2340+0,74(Д-100)</t>
+  </si>
+  <si>
+    <t>2440+0,74(Д-100)</t>
+  </si>
+  <si>
+    <t>2540+0,74(Д-100)</t>
+  </si>
+  <si>
+    <t>2640+0,74(Д-100)</t>
+  </si>
+  <si>
     <t>КПР-61 «Север»</t>
   </si>
   <si>
     <t>3870+0,28(Д-2680)</t>
   </si>
   <si>
+    <t>3970+0,28(Д-2680)</t>
+  </si>
+  <si>
+    <t>4070+0,28(Д-2680)</t>
+  </si>
+  <si>
+    <t>4170+0,28(Д-2680)</t>
+  </si>
+  <si>
+    <t>4270+0,28(Д-2680)</t>
+  </si>
+  <si>
+    <t>4370+0,28(Д-2680)</t>
+  </si>
+  <si>
     <t>КПР-62 «Север»</t>
   </si>
   <si>
     <t>3880+0,42(Д-2670)</t>
   </si>
   <si>
+    <t>3980+0,42(Д-2670)</t>
+  </si>
+  <si>
+    <t>4080+0,42(Д-2670)</t>
+  </si>
+  <si>
+    <t>4180+0,42(Д-2670)</t>
+  </si>
+  <si>
+    <t>4280+0,42(Д-2670)</t>
+  </si>
+  <si>
+    <t>4380+0,42(Д-2670)</t>
+  </si>
+  <si>
     <t>КПР-63 «Север»</t>
   </si>
   <si>
     <t>810+5(Д-150)</t>
   </si>
   <si>
+    <t>910+5(Д-150)</t>
+  </si>
+  <si>
+    <t>1010+5(Д-150)</t>
+  </si>
+  <si>
+    <t>1110+5(Д-150)</t>
+  </si>
+  <si>
+    <t>1210+5(Д-150)</t>
+  </si>
+  <si>
+    <t>1310+5(Д-150)</t>
+  </si>
+  <si>
     <t>КПР-64 «Север»</t>
   </si>
   <si>
@@ -538,6 +2058,81 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>2100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+0,73*Д</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+0,73*Д</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+0,73*Д</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+0,73*Д</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+0,73*Д</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-65 «Север»</t>
   </si>
   <si>
@@ -566,36 +2161,236 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>3660+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0,38(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3760+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0,38(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3860+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0,38(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3960+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0,38(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4060+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0,38(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-66 «Север»</t>
   </si>
   <si>
     <t>2050+0,71(Д-110)</t>
   </si>
   <si>
+    <t>2150+0,71(Д-110)</t>
+  </si>
+  <si>
+    <t>2250+0,71(Д-110)</t>
+  </si>
+  <si>
+    <t>2350+0,71(Д-110)</t>
+  </si>
+  <si>
+    <t>2450+0,71(Д-110)</t>
+  </si>
+  <si>
+    <t>2550+0,71(Д-110)</t>
+  </si>
+  <si>
     <t>КПР-67 «Север»</t>
   </si>
   <si>
     <t>3830+0,24(Д-2690)</t>
   </si>
   <si>
+    <t>3930+0,24(Д-2690)</t>
+  </si>
+  <si>
+    <t>4030+0,24(Д-2690)</t>
+  </si>
+  <si>
+    <t>4130+0,24(Д-2690)</t>
+  </si>
+  <si>
+    <t>4230+0,24(Д-2690)</t>
+  </si>
+  <si>
+    <t>4330+0,24(Д-2690)</t>
+  </si>
+  <si>
     <t>КПР-68 «Север»</t>
   </si>
   <si>
     <t>3850+0,43(Д-2690)</t>
   </si>
   <si>
+    <t>3950+0,43(Д-2690)</t>
+  </si>
+  <si>
+    <t>4050+0,43(Д-2690)</t>
+  </si>
+  <si>
+    <t>4150+0,43(Д-2690)</t>
+  </si>
+  <si>
+    <t>4250+0,43(Д-2690)</t>
+  </si>
+  <si>
+    <t>4350+0,43(Д-2690)</t>
+  </si>
+  <si>
     <t>КПР-69 «Север»</t>
   </si>
   <si>
     <t>3200-6,18(Д-2750)</t>
   </si>
   <si>
+    <t>3300-6,18(Д-2750)</t>
+  </si>
+  <si>
+    <t>3400-6,18(Д-2750)</t>
+  </si>
+  <si>
+    <t>3500-6,18(Д-2750)</t>
+  </si>
+  <si>
+    <t>3600-6,18(Д-2750)</t>
+  </si>
+  <si>
+    <t>3700-6,18(Д-2750)</t>
+  </si>
+  <si>
     <t>КПР-70 «Север»</t>
   </si>
   <si>
     <t>1650+5(Д-40)</t>
   </si>
   <si>
+    <t>1750+5(Д-40)</t>
+  </si>
+  <si>
+    <t>1850+5(Д-40)</t>
+  </si>
+  <si>
+    <t>1950+5(Д-40)</t>
+  </si>
+  <si>
+    <t>2050+5(Д-40)</t>
+  </si>
+  <si>
+    <t>2150+5(Д-40)</t>
+  </si>
+  <si>
     <t>КПР-71 «Север»</t>
   </si>
   <si>
@@ -624,96 +2419,437 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>3660-0,34(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3760-0,34(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3860-0,34(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3960-0,34(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4060-0,34(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-72 «Север»</t>
   </si>
   <si>
     <t>1930+0,77(Д-300)</t>
   </si>
   <si>
+    <t>2030+0,77(Д-300)</t>
+  </si>
+  <si>
+    <t>2130+0,77(Д-300)</t>
+  </si>
+  <si>
+    <t>2230+0,77(Д-300)</t>
+  </si>
+  <si>
+    <t>2330+0,77(Д-300)</t>
+  </si>
+  <si>
+    <t>2430+0,77(Д-300)</t>
+  </si>
+  <si>
     <t>КПР-73 «Север»</t>
   </si>
   <si>
     <t>2080+0,83(Д-110)</t>
   </si>
   <si>
+    <t>2180+0,83(Д-110)</t>
+  </si>
+  <si>
+    <t>2280+0,83(Д-110)</t>
+  </si>
+  <si>
+    <t>2380+0,83(Д-110)</t>
+  </si>
+  <si>
+    <t>2480+0,83(Д-110)</t>
+  </si>
+  <si>
+    <t>2580+0,83(Д-110)</t>
+  </si>
+  <si>
     <t>КПР-74 «Север»</t>
   </si>
   <si>
     <t>3860+0,49(Д-2690)</t>
   </si>
   <si>
+    <t>3960+0,49(Д-2690)</t>
+  </si>
+  <si>
+    <t>4060+0,49(Д-2690)</t>
+  </si>
+  <si>
+    <t>4160+0,49(Д-2690)</t>
+  </si>
+  <si>
+    <t>4260+0,49(Д-2690)</t>
+  </si>
+  <si>
+    <t>4360+0,49(Д-2690)</t>
+  </si>
+  <si>
     <t>КПР-75 «Север»</t>
   </si>
   <si>
     <t>3840+0,24(Д-2690)</t>
   </si>
   <si>
+    <t>3940+0,24(Д-2690)</t>
+  </si>
+  <si>
+    <t>4040+0,24(Д-2690)</t>
+  </si>
+  <si>
+    <t>4140+0,24(Д-2690)</t>
+  </si>
+  <si>
+    <t>4240+0,24(Д-2690)</t>
+  </si>
+  <si>
     <t>КПР-76 «Север»</t>
   </si>
   <si>
     <t>3120-6,18(Д-2770)</t>
   </si>
   <si>
+    <t>3220-6,18(Д-2770)</t>
+  </si>
+  <si>
+    <t>3320-6,18(Д-2770)</t>
+  </si>
+  <si>
+    <t>3420-6,18(Д-2770)</t>
+  </si>
+  <si>
+    <t>3520-6,18(Д-2770)</t>
+  </si>
+  <si>
+    <t>3620-6,18(Д-2770)</t>
+  </si>
+  <si>
     <t>КПР-77 «Север»</t>
   </si>
   <si>
     <t>1930+0,82*Д</t>
   </si>
   <si>
+    <t>2030+0,82*Д</t>
+  </si>
+  <si>
+    <t>2130+0,82*Д</t>
+  </si>
+  <si>
+    <t>2230+0,82*Д</t>
+  </si>
+  <si>
+    <t>2330+0,82*Д</t>
+  </si>
+  <si>
+    <t>2430+0,82*Д</t>
+  </si>
+  <si>
     <t>КПР-78 «Север»</t>
   </si>
   <si>
     <t>2150+0,8(Д-100)</t>
   </si>
   <si>
+    <t>2250+0,8(Д-100)</t>
+  </si>
+  <si>
+    <t>2350+0,8(Д-100)</t>
+  </si>
+  <si>
+    <t>2450+0,8(Д-100)</t>
+  </si>
+  <si>
+    <t>2550+0,8(Д-100)</t>
+  </si>
+  <si>
+    <t>2650+0,8(Д-100)</t>
+  </si>
+  <si>
     <t>КПР-79 «Север»</t>
   </si>
   <si>
     <t>3870+0,37(Д-2690)</t>
   </si>
   <si>
+    <t>3970+0,37(Д-2690)</t>
+  </si>
+  <si>
+    <t>4070+0,37(Д-2690)</t>
+  </si>
+  <si>
+    <t>4170+0,37(Д-2690)</t>
+  </si>
+  <si>
+    <t>4270+0,37(Д-2690)</t>
+  </si>
+  <si>
+    <t>4370+0,37(Д-2690)</t>
+  </si>
+  <si>
     <t>КПР-80 «Север»</t>
   </si>
   <si>
     <t>3850+0,23(Д-2690)</t>
   </si>
   <si>
-    <t>КПР-81«Север»</t>
+    <t>3950+0,23(Д-2690)</t>
+  </si>
+  <si>
+    <t>4050+0,23(Д-2690)</t>
+  </si>
+  <si>
+    <t>4150+0,23(Д-2690)</t>
+  </si>
+  <si>
+    <t>4250+0,23(Д-2690)</t>
+  </si>
+  <si>
+    <t>4350+0,23(Д-2690)</t>
   </si>
   <si>
     <t>2580+0,66(Д-40)</t>
   </si>
   <si>
+    <t>2680+0,66(Д-40)</t>
+  </si>
+  <si>
+    <t>2780+0,66(Д-40)</t>
+  </si>
+  <si>
+    <t>2880+0,66(Д-40)</t>
+  </si>
+  <si>
+    <t>2980+0,66(Д-40)</t>
+  </si>
+  <si>
+    <t>3080+0,66(Д-40)</t>
+  </si>
+  <si>
     <t>КПР-82 «Север»</t>
   </si>
   <si>
     <t>2010+0,77*Д</t>
   </si>
   <si>
+    <t>2110+0,77*Д</t>
+  </si>
+  <si>
+    <t>2210+0,77*Д</t>
+  </si>
+  <si>
+    <t>2310+0,77*Д</t>
+  </si>
+  <si>
+    <t>2410+0,77*Д</t>
+  </si>
+  <si>
+    <t>2510+0,77*Д</t>
+  </si>
+  <si>
     <t>КПР-83 «Север»</t>
   </si>
   <si>
     <t>3580-0,26(Д-2400)</t>
   </si>
   <si>
-    <t>КПР-84«Север»</t>
+    <t>3680-0,26(Д-2400)</t>
+  </si>
+  <si>
+    <t>3780-0,26(Д-2400)</t>
+  </si>
+  <si>
+    <t>3880-0,26(Д-2400)</t>
+  </si>
+  <si>
+    <t>3980-0,26(Д-2400)</t>
+  </si>
+  <si>
+    <t>4080-0,26(Д-2400)</t>
   </si>
   <si>
     <t>1810+0,77(Д-140)</t>
   </si>
   <si>
+    <t>1910+0,77(Д-140)</t>
+  </si>
+  <si>
+    <t>2010+0,77(Д-140)</t>
+  </si>
+  <si>
+    <t>2110+0,77(Д-140)</t>
+  </si>
+  <si>
+    <t>2210+0,77(Д-140)</t>
+  </si>
+  <si>
+    <t>2310+0,77(Д-140)</t>
+  </si>
+  <si>
     <t>КПР-85 «Север»</t>
   </si>
   <si>
     <t>3860+0,61(Д-2690)</t>
   </si>
   <si>
+    <t>3960+0,61(Д-2690)</t>
+  </si>
+  <si>
+    <t>4060+0,61(Д-2690)</t>
+  </si>
+  <si>
+    <t>4160+0,61(Д-2690)</t>
+  </si>
+  <si>
+    <t>4260+0,61(Д-2690)</t>
+  </si>
+  <si>
+    <t>4360+0,61(Д-2690)</t>
+  </si>
+  <si>
     <t>КПР-86 «Север»</t>
   </si>
   <si>
     <t>3030-1,28(Д-2780)</t>
   </si>
   <si>
+    <t>3130-1,28(Д-2780)</t>
+  </si>
+  <si>
+    <t>3230-1,28(Д-2780)</t>
+  </si>
+  <si>
+    <t>3330-1,28(Д-2780)</t>
+  </si>
+  <si>
+    <t>3430-1,28(Д-2780)</t>
+  </si>
+  <si>
+    <t>3530-1,28(Д-2780)</t>
+  </si>
+  <si>
     <t>КПР-87 «Север»</t>
   </si>
   <si>
@@ -742,6 +2878,131 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>1760+0,81(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1860+0,81(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1960+0,81(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2060+0,81(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2160+0,81(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-88 «Север»</t>
   </si>
   <si>
@@ -771,6 +3032,31 @@
   </si>
   <si>
     <r>
+      <t>3640-0,57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д+2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>КПР-5 «</t>
     </r>
     <r>
@@ -1490,108 +3776,463 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>3740-0,57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д+2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3840-0,57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д+2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3940-0,57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д+2400)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4040-0,57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д+2400)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-89 «Север»</t>
   </si>
   <si>
     <t>1670+1,63(Д-120)</t>
   </si>
   <si>
+    <t>1770+1,63(Д-120)</t>
+  </si>
+  <si>
+    <t>1870+1,63(Д-120)</t>
+  </si>
+  <si>
+    <t>1970+1,63(Д-120)</t>
+  </si>
+  <si>
+    <t>2070+1,63(Д-120)</t>
+  </si>
+  <si>
+    <t>2170+1,63(Д-120)</t>
+  </si>
+  <si>
     <t>КПР-90 «Север»</t>
   </si>
   <si>
     <t>1800+0,31(Д-400)</t>
   </si>
   <si>
+    <t>1900+0,31(Д-400)</t>
+  </si>
+  <si>
+    <t>2000+0,31(Д-400)</t>
+  </si>
+  <si>
+    <t>2100+0,31(Д-400)</t>
+  </si>
+  <si>
+    <t>2200+0,31(Д-400)</t>
+  </si>
+  <si>
+    <t>2300+0,31(Д-400)</t>
+  </si>
+  <si>
     <t>КПР-91 «Север»</t>
   </si>
   <si>
     <t>1600+1,6(Д-150)</t>
   </si>
   <si>
+    <t>1700+1,6(Д-150)</t>
+  </si>
+  <si>
+    <t>1800+1,6(Д-150)</t>
+  </si>
+  <si>
+    <t>1900+1,6(Д-150)</t>
+  </si>
+  <si>
+    <t>2000+1,6(Д-150)</t>
+  </si>
+  <si>
+    <t>2100+1,6(Д-150)</t>
+  </si>
+  <si>
     <t>КПР-92 «Север»</t>
   </si>
   <si>
     <t>1610+0,16(Д-2520)</t>
   </si>
   <si>
+    <t>1710+0,16(Д-2520)</t>
+  </si>
+  <si>
+    <t>1810+0,16(Д-2520)</t>
+  </si>
+  <si>
+    <t>1910+0,16(Д-2520)</t>
+  </si>
+  <si>
+    <t>2010+0,16(Д-2520)</t>
+  </si>
+  <si>
+    <t>2110+0,16(Д-2520)</t>
+  </si>
+  <si>
     <t>КПР-93 «Север»</t>
   </si>
   <si>
     <t>1570+1,42(Д-150)</t>
   </si>
   <si>
+    <t>1670+1,42(Д-150)</t>
+  </si>
+  <si>
+    <t>1770+1,42(Д-150)</t>
+  </si>
+  <si>
+    <t>1870+1,42(Д-150)</t>
+  </si>
+  <si>
+    <t>1970+1,42(Д-150)</t>
+  </si>
+  <si>
+    <t>2070+1,42(Д-150)</t>
+  </si>
+  <si>
     <t>КПР-94 «Север»</t>
   </si>
   <si>
     <t>1610+0,13(Д-2540)</t>
   </si>
   <si>
+    <t>1710+0,13(Д-2540)</t>
+  </si>
+  <si>
+    <t>1810+0,13(Д-2540)</t>
+  </si>
+  <si>
+    <t>1910+0,13(Д-2540)</t>
+  </si>
+  <si>
+    <t>2010+0,13(Д-2540)</t>
+  </si>
+  <si>
+    <t>2110+0,13(Д-2540)</t>
+  </si>
+  <si>
     <t>КПР-95 «Север»</t>
   </si>
   <si>
     <t>2310+0,53(Д-100)</t>
   </si>
   <si>
+    <t>2410+0,53(Д-100)</t>
+  </si>
+  <si>
+    <t>2510+0,53(Д-100)</t>
+  </si>
+  <si>
+    <t>2610+0,53(Д-100)</t>
+  </si>
+  <si>
+    <t>2710+0,53(Д-100)</t>
+  </si>
+  <si>
+    <t>2810+0,53(Д-100)</t>
+  </si>
+  <si>
     <t>КПР-96 «Север»</t>
   </si>
   <si>
     <t>1390+1,43(Д-2210)</t>
   </si>
   <si>
+    <t>1490+1,43(Д-2210)</t>
+  </si>
+  <si>
+    <t>1590+1,43(Д-2210)</t>
+  </si>
+  <si>
+    <t>1690+1,43(Д-2210)</t>
+  </si>
+  <si>
+    <t>1790+1,43(Д-2210)</t>
+  </si>
+  <si>
+    <t>1890+1,43(Д-2210)</t>
+  </si>
+  <si>
     <t>КПР-97 «Север»</t>
   </si>
   <si>
     <t>1780+0,76(Д-110)</t>
   </si>
   <si>
+    <t>1880+0,76(Д-110)</t>
+  </si>
+  <si>
+    <t>1980+0,76(Д-110)</t>
+  </si>
+  <si>
+    <t>2080+0,76(Д-110)</t>
+  </si>
+  <si>
+    <t>2180+0,76(Д-110)</t>
+  </si>
+  <si>
+    <t>2280+0,76(Д-110)</t>
+  </si>
+  <si>
     <t>КПР-98 «Север»</t>
   </si>
   <si>
     <t>2320+0,78(Д-2080)</t>
   </si>
   <si>
+    <t>2420+0,78(Д-2080)</t>
+  </si>
+  <si>
+    <t>2520+0,78(Д-2080)</t>
+  </si>
+  <si>
+    <t>2620+0,78(Д-2080)</t>
+  </si>
+  <si>
+    <t>2720+0,78(Д-2080)</t>
+  </si>
+  <si>
+    <t>2820+0,78(Д-2080)</t>
+  </si>
+  <si>
     <t>КПР-99 «Север»</t>
   </si>
   <si>
     <t>2130+0,71(Д-100)</t>
   </si>
   <si>
+    <t>2230+0,71(Д-100)</t>
+  </si>
+  <si>
+    <t>2330+0,71(Д-100)</t>
+  </si>
+  <si>
+    <t>2430+0,71(Д-100)</t>
+  </si>
+  <si>
+    <t>2530+0,71(Д-100)</t>
+  </si>
+  <si>
+    <t>2630+0,71(Д-100)</t>
+  </si>
+  <si>
     <t>КПР-100 «Север»</t>
   </si>
   <si>
     <t>2670+0,72(Д-35)</t>
   </si>
   <si>
+    <t>2770+0,72(Д-35)</t>
+  </si>
+  <si>
+    <t>2870+0,72(Д-35)</t>
+  </si>
+  <si>
+    <t>2970+0,72(Д-35)</t>
+  </si>
+  <si>
+    <t>3070+0,72(Д-35)</t>
+  </si>
+  <si>
+    <t>3170+0,72(Д-35)</t>
+  </si>
+  <si>
     <t>КПР-101 «Север»</t>
   </si>
   <si>
     <t>2860-0,29(Д-2810)</t>
   </si>
   <si>
+    <t>2960-0,29(Д-2810)</t>
+  </si>
+  <si>
+    <t>3060-0,29(Д-2810)</t>
+  </si>
+  <si>
+    <t>3160-0,29(Д-2810)</t>
+  </si>
+  <si>
+    <t>3260-0,29(Д-2810)</t>
+  </si>
+  <si>
+    <t>3360-0,29(Д-2810)</t>
+  </si>
+  <si>
     <t>КПР-102 «Север»</t>
   </si>
   <si>
     <t>1300+2,7(Д-100)</t>
   </si>
   <si>
+    <t>1400+2,7(Д-100)</t>
+  </si>
+  <si>
+    <t>1500+2,7(Д-100)</t>
+  </si>
+  <si>
+    <t>1600+2,7(Д-100)</t>
+  </si>
+  <si>
+    <t>1700+2,7(Д-100)</t>
+  </si>
+  <si>
+    <t>1800+2,7(Д-100)</t>
+  </si>
+  <si>
     <t>КПР-103 «Север»</t>
   </si>
   <si>
     <t>1910-0,38(Д-2510)</t>
   </si>
   <si>
+    <t>2010-0,38(Д-2510)</t>
+  </si>
+  <si>
+    <t>2110-0,38(Д-2510)</t>
+  </si>
+  <si>
+    <t>2210-0,38(Д-2510)</t>
+  </si>
+  <si>
+    <t>2310-0,38(Д-2510)</t>
+  </si>
+  <si>
+    <t>2410-0,38(Д-2510)</t>
+  </si>
+  <si>
     <t>КПР-104 «Север»</t>
   </si>
   <si>
     <t>2380+2,36(Д+50)</t>
   </si>
   <si>
+    <t>2480+2,36(Д+50)</t>
+  </si>
+  <si>
+    <t>2580+2,36(Д+50)</t>
+  </si>
+  <si>
+    <t>2680+2,36(Д+50)</t>
+  </si>
+  <si>
+    <t>2780+2,36(Д+50)</t>
+  </si>
+  <si>
+    <t>2880+2,36(Д+50)</t>
+  </si>
+  <si>
     <t>КПР-105 «Север»</t>
   </si>
   <si>
     <t>2340+2,49(Д+30)</t>
   </si>
   <si>
+    <t>2440+2,49(Д+30)</t>
+  </si>
+  <si>
+    <t>2540+2,49(Д+30)</t>
+  </si>
+  <si>
+    <t>2640+2,49(Д+30)</t>
+  </si>
+  <si>
+    <t>2740+2,49(Д+30)</t>
+  </si>
+  <si>
+    <t>2840+2,49(Д+30)</t>
+  </si>
+  <si>
     <t>КПР-106 «Север»</t>
   </si>
   <si>
@@ -1610,42 +4251,207 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>3570-0,42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2430)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3670-0,42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2430)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3770-0,42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2430)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3870-0,42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2430)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3970-0,42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2430)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-107 «Север»</t>
   </si>
   <si>
     <t>2630+0,67(Д-40)</t>
   </si>
   <si>
+    <t>2730+0,67(Д-40)</t>
+  </si>
+  <si>
+    <t>2830+0,67(Д-40)</t>
+  </si>
+  <si>
+    <t>2930+0,67(Д-40)</t>
+  </si>
+  <si>
+    <t>3030+0,67(Д-40)</t>
+  </si>
+  <si>
+    <t>3130+0,67(Д-40)</t>
+  </si>
+  <si>
     <t>КПР-108 «Север»</t>
   </si>
   <si>
     <t>3050+0,43(Д-2770)</t>
   </si>
   <si>
+    <t>3150+0,43(Д-2770)</t>
+  </si>
+  <si>
+    <t>3250+0,43(Д-2770)</t>
+  </si>
+  <si>
+    <t>3350+0,43(Д-2770)</t>
+  </si>
+  <si>
+    <t>3450+0,43(Д-2770)</t>
+  </si>
+  <si>
+    <t>3550+0,43(Д-2770)</t>
+  </si>
+  <si>
     <t>КПР-109 «Север»</t>
   </si>
   <si>
     <t>2970-0,13(Д-2410)</t>
   </si>
   <si>
+    <t>3070-0,13(Д-2410)</t>
+  </si>
+  <si>
+    <t>3170-0,13(Д-2410)</t>
+  </si>
+  <si>
+    <t>3270-0,13(Д-2410)</t>
+  </si>
+  <si>
+    <t>3370-0,13(Д-2410)</t>
+  </si>
+  <si>
+    <t>3470-0,13(Д-2410)</t>
+  </si>
+  <si>
     <t>КПР-110 «Север»</t>
   </si>
   <si>
     <t>3100+0,38(Д-2340)</t>
   </si>
   <si>
+    <t>3200+0,38(Д-2340)</t>
+  </si>
+  <si>
+    <t>3300+0,38(Д-2340)</t>
+  </si>
+  <si>
+    <t>3400+0,38(Д-2340)</t>
+  </si>
+  <si>
+    <t>3500+0,38(Д-2340)</t>
+  </si>
+  <si>
+    <t>3600+0,38(Д-2340)</t>
+  </si>
+  <si>
     <t>КПР-111 «Север»</t>
   </si>
   <si>
     <t>2530+0,25(Д-30)</t>
   </si>
   <si>
+    <t>2630+0,25(Д-30)</t>
+  </si>
+  <si>
+    <t>2730+0,25(Д-30)</t>
+  </si>
+  <si>
+    <t>2830+0,25(Д-30)</t>
+  </si>
+  <si>
+    <t>2930+0,25(Д-30)</t>
+  </si>
+  <si>
+    <t>3030+0,25(Д-30)</t>
+  </si>
+  <si>
     <t>КПР-112 «Север»</t>
   </si>
   <si>
     <t>3720+0,48(Д-2260)</t>
   </si>
   <si>
+    <t>3820+0,48(Д-2260)</t>
+  </si>
+  <si>
+    <t>3920+0,48(Д-2260)</t>
+  </si>
+  <si>
+    <t>4020+0,48(Д-2260)</t>
+  </si>
+  <si>
+    <t>4120+0,48(Д-2260)</t>
+  </si>
+  <si>
+    <t>4220+0,48(Д-2260)</t>
+  </si>
+  <si>
     <t>КПР-113 «Север»</t>
   </si>
   <si>
@@ -1664,30 +4470,165 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>2950-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2160)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3050-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2160)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3150-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2160)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3250-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2160)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3350-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Д-2160)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-114 «Север»</t>
   </si>
   <si>
     <t>2540+0,57(Д-40)</t>
   </si>
   <si>
+    <t>2640+0,57(Д-40)</t>
+  </si>
+  <si>
+    <t>2740+0,57(Д-40)</t>
+  </si>
+  <si>
+    <t>2840+0,57(Д-40)</t>
+  </si>
+  <si>
+    <t>2940+0,57(Д-40)</t>
+  </si>
+  <si>
+    <t>3040+0,57(Д-40)</t>
+  </si>
+  <si>
     <t>КПР-115 «Север»</t>
   </si>
   <si>
     <t>3760+0,48(Д-2270)</t>
   </si>
   <si>
+    <t>3860+0,48(Д-2270)</t>
+  </si>
+  <si>
+    <t>3960+0,48(Д-2270)</t>
+  </si>
+  <si>
+    <t>4060+0,48(Д-2270)</t>
+  </si>
+  <si>
+    <t>4160+0,48(Д-2270)</t>
+  </si>
+  <si>
+    <t>4260+0,48(Д-2270)</t>
+  </si>
+  <si>
     <t>КПР-116 «Север»</t>
   </si>
   <si>
     <t>4270+0,6(Д-2520)</t>
   </si>
   <si>
+    <t>4370+0,6(Д-2520)</t>
+  </si>
+  <si>
+    <t>4470+0,6(Д-2520)</t>
+  </si>
+  <si>
+    <t>4570+0,6(Д-2520)</t>
+  </si>
+  <si>
+    <t>4670+0,6(Д-2520)</t>
+  </si>
+  <si>
+    <t>4770+0,6(Д-2520)</t>
+  </si>
+  <si>
     <t>КПР-117 «Север»</t>
   </si>
   <si>
     <t>3990+0,48(Д-2220)</t>
   </si>
   <si>
+    <t>4090+0,48(Д-2220)</t>
+  </si>
+  <si>
+    <t>4190+0,48(Д-2220)</t>
+  </si>
+  <si>
+    <t>4290+0,48(Д-2220)</t>
+  </si>
+  <si>
+    <t>4390+0,48(Д-2220)</t>
+  </si>
+  <si>
+    <t>4490+0,48(Д-2220)</t>
+  </si>
+  <si>
     <t>КПР-118 «Север»</t>
   </si>
   <si>
@@ -1706,12 +4647,102 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>3400-0,25(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2390)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3500-0,25(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2390)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3600-0,25(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2390)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3700-0,25(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2390)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3800-0,25(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д-2390)</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-119 «Север»</t>
   </si>
   <si>
     <t>1760+5,53(Д-100)</t>
   </si>
   <si>
+    <t>1860+5,53(Д-100)</t>
+  </si>
+  <si>
+    <t>1960+5,53(Д-100)</t>
+  </si>
+  <si>
+    <t>2060+5,53(Д-100)</t>
+  </si>
+  <si>
+    <t>2160+5,53(Д-100)</t>
+  </si>
+  <si>
+    <t>2260+5,53(Д-100)</t>
+  </si>
+  <si>
     <t>КПР-120 «Север»</t>
   </si>
   <si>
@@ -1730,52 +4761,1307 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>2020+0,82*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2120+0,82*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2220+0,82*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2320+0,82*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2420+0,82*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д</t>
+    </r>
+  </si>
+  <si>
     <t>КПР-121 «Север»</t>
   </si>
   <si>
     <t>1880-0,11(Д-90)</t>
   </si>
   <si>
+    <t>1980-0,11(Д-90)</t>
+  </si>
+  <si>
+    <t>2080-0,11(Д-90)</t>
+  </si>
+  <si>
+    <t>2180-0,11(Д-90)</t>
+  </si>
+  <si>
+    <t>2280-0,11(Д-90)</t>
+  </si>
+  <si>
+    <t>2380-0,11(Д-90)</t>
+  </si>
+  <si>
     <t>КПР-122 «Север»</t>
   </si>
   <si>
     <t>1820+1,35(Д-110)</t>
   </si>
   <si>
+    <t>1920+1,35(Д-110)</t>
+  </si>
+  <si>
+    <t>2020+1,35(Д-110)</t>
+  </si>
+  <si>
+    <t>2120+1,35(Д-110)</t>
+  </si>
+  <si>
+    <t>2220+1,35(Д-110)</t>
+  </si>
+  <si>
+    <t>2320+1,35(Д-110)</t>
+  </si>
+  <si>
     <t>КПР-123 «Север»</t>
   </si>
   <si>
     <t>1860+0,06(Д-110)</t>
   </si>
   <si>
+    <t>1960+0,06(Д-110)</t>
+  </si>
+  <si>
+    <t>2060+0,06(Д-110)</t>
+  </si>
+  <si>
+    <t>2160+0,06(Д-110)</t>
+  </si>
+  <si>
+    <t>2260+0,06(Д-110)</t>
+  </si>
+  <si>
+    <t>2360+0,06(Д-110)</t>
+  </si>
+  <si>
     <t>КПР-124 «Север»</t>
   </si>
   <si>
     <t>1820+0,07(Д-100)</t>
   </si>
   <si>
+    <t>1920+0,07(Д-100)</t>
+  </si>
+  <si>
+    <t>2020+0,07(Д-100)</t>
+  </si>
+  <si>
+    <t>2120+0,07(Д-100)</t>
+  </si>
+  <si>
+    <t>2220+0,07(Д-100)</t>
+  </si>
+  <si>
+    <t>2320+0,07(Д-100)</t>
+  </si>
+  <si>
     <t>КПР-125 «Север»</t>
   </si>
   <si>
     <t>2390+0,42∙Д</t>
   </si>
   <si>
+    <t>2490+0,42∙Д</t>
+  </si>
+  <si>
+    <t>2590+0,42∙Д</t>
+  </si>
+  <si>
+    <t>2690+0,42∙Д</t>
+  </si>
+  <si>
+    <t>2790+0,42∙Д</t>
+  </si>
+  <si>
+    <t>2890+0,42∙Д</t>
+  </si>
+  <si>
     <t>КПР-126 «Север»</t>
   </si>
   <si>
     <t>2590+1,1(Д-2040)</t>
   </si>
   <si>
+    <t>2690+1,1(Д-2040)</t>
+  </si>
+  <si>
+    <t>2790+1,1(Д-2040)</t>
+  </si>
+  <si>
+    <t>2890+1,1(Д-2040)</t>
+  </si>
+  <si>
+    <t>2990+1,1(Д-2040)</t>
+  </si>
+  <si>
+    <t>3090+1,1(Д-2040)</t>
+  </si>
+  <si>
     <t>КПР-127 «Север»</t>
   </si>
   <si>
     <t>2420+0,14(Д-2380)</t>
+  </si>
+  <si>
+    <t>2520+0,14(Д-2380)</t>
+  </si>
+  <si>
+    <t>2620+0,14(Д-2380)</t>
+  </si>
+  <si>
+    <t>2720+0,14(Д-2380)</t>
+  </si>
+  <si>
+    <t>2820+0,14(Д-2380)</t>
+  </si>
+  <si>
+    <t>2920+0,14(Д-2380)</t>
+  </si>
+  <si>
+    <t>КПР-84 «Север»</t>
+  </si>
+  <si>
+    <t>КПР-81 «Север»</t>
+  </si>
+  <si>
+    <t>Расч_КПР-1_Север</t>
+  </si>
+  <si>
+    <t>-74,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-1_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,74;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-2_Север</t>
+  </si>
+  <si>
+    <t>-945,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-2_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,35;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-3_Север</t>
+  </si>
+  <si>
+    <t>-26,800001</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-3_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,67;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-4_Север</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-4_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,77;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-5_Север</t>
+  </si>
+  <si>
+    <t>895,4</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-5_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,37;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-6_Север</t>
+  </si>
+  <si>
+    <t>-79,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-6_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,79;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-7_Север</t>
+  </si>
+  <si>
+    <t>-672,5</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-7_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,25;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-8_Север</t>
+  </si>
+  <si>
+    <t>1156,2</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-8_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,41;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-9_Север</t>
+  </si>
+  <si>
+    <t>-539,6</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-9_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-2,84;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-10_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-10_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,78;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-11_Север</t>
+  </si>
+  <si>
+    <t>1391,5</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-11_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,55;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-12_Север</t>
+  </si>
+  <si>
+    <t>877,8</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-12_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,38;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-13_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-13_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,88;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-14_Север</t>
+  </si>
+  <si>
+    <t>-75,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-14_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-2,5;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-15_Север</t>
+  </si>
+  <si>
+    <t>475,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-15_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,19;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-16_Север</t>
+  </si>
+  <si>
+    <t>888,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-16_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,37;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-17_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-17_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,87;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-18_Север</t>
+  </si>
+  <si>
+    <t>1000,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-18_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,4;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-19_Север</t>
+  </si>
+  <si>
+    <t>-99,6</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-19_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-2,49;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-20_Север</t>
+  </si>
+  <si>
+    <t>960,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-20_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,4;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-21_Север</t>
+  </si>
+  <si>
+    <t>-90,2</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-21_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,82;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-22_Север</t>
+  </si>
+  <si>
+    <t>-33,5</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-22_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,67;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-23_Север</t>
+  </si>
+  <si>
+    <t>-616,4</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-23_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,23;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-24_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-24_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,78;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-25_Север</t>
+  </si>
+  <si>
+    <t>915,8</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-25_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,38;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-26_Север</t>
+  </si>
+  <si>
+    <t>-1208,3</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-26_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,43;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-27_Север</t>
+  </si>
+  <si>
+    <t>-304,7</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-27_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,11;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-28_Север</t>
+  </si>
+  <si>
+    <t>-366,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-28_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,15;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-29_Север</t>
+  </si>
+  <si>
+    <t>315,9</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-29_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,13;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-30_Север</t>
+  </si>
+  <si>
+    <t>-86,9</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-30_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,79;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-32_Север</t>
+  </si>
+  <si>
+    <t>-22,4</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-32_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,56;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-33_Север</t>
+  </si>
+  <si>
+    <t>-20,7</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-33_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,69;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-34_Север</t>
+  </si>
+  <si>
+    <t>-1123,2</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-34_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,48;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-35_Север</t>
+  </si>
+  <si>
+    <t>2280,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-35_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;1,0;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-36_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-36_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,8;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-37_Север</t>
+  </si>
+  <si>
+    <t>635,1</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-37_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,29;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-38_Север</t>
+  </si>
+  <si>
+    <t>4774,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-38_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;2,17;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-39_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-39_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,75;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-41_Север</t>
+  </si>
+  <si>
+    <t>-28,5</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-41_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,57;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-42_Север</t>
+  </si>
+  <si>
+    <t>-1269,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-42_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,54;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-43_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-43_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,84;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-44_Север</t>
+  </si>
+  <si>
+    <t>10250,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-44_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;5,0;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-45_Север</t>
+  </si>
+  <si>
+    <t>4642,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-45_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;2,11;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-46_Север</t>
+  </si>
+  <si>
+    <t>-84,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-46_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,84;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-47_Север</t>
+  </si>
+  <si>
+    <t>-677,7</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-47_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,27;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-48_Север</t>
+  </si>
+  <si>
+    <t>907,2</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-48_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,36;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-50_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-50_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,84;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-51_Север</t>
+  </si>
+  <si>
+    <t>854,7</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-51_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,37;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-52_Север</t>
+  </si>
+  <si>
+    <t>-85,799995</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-52_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,78;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-53_Север</t>
+  </si>
+  <si>
+    <t>-183,2</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-53_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,08;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-54_Север</t>
+  </si>
+  <si>
+    <t>-866,39996</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-54_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,38;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-55_Север</t>
+  </si>
+  <si>
+    <t>1070,4</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-55_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,48;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-56_Север</t>
+  </si>
+  <si>
+    <t>1717,5</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-56_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,75;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-57_Север</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-57_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,81;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-58_Север</t>
+  </si>
+  <si>
+    <t>935,99994</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-58_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,39;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-59_Север</t>
+  </si>
+  <si>
+    <t>5637,5996</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-59_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;2,32;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-60_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-60_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,74;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-61_Север</t>
+  </si>
+  <si>
+    <t>-750,4</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-61_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,28;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-62_Север</t>
+  </si>
+  <si>
+    <t>-1121,4</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-62_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,42;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-63_Север</t>
+  </si>
+  <si>
+    <t>-750,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-63_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-5,0;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-64_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-64_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,73;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-65_Север</t>
+  </si>
+  <si>
+    <t>-912,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-65_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,38;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-66_Север</t>
+  </si>
+  <si>
+    <t>-78,1</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-66_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,71;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-67_Север</t>
+  </si>
+  <si>
+    <t>-645,6</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-67_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,24;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-68_Север</t>
+  </si>
+  <si>
+    <t>-1156,7001</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-68_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,43;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-69_Север</t>
+  </si>
+  <si>
+    <t>16995,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-69_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;6,18;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-70_Север</t>
+  </si>
+  <si>
+    <t>-200,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-70_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-5,0;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-71_Север</t>
+  </si>
+  <si>
+    <t>816,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-71_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,34;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-72_Север</t>
+  </si>
+  <si>
+    <t>-231,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-72_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,77;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-73_Север</t>
+  </si>
+  <si>
+    <t>-91,299995</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-73_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,83;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-74_Север</t>
+  </si>
+  <si>
+    <t>-1318,1</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-74_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,49;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-75_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-75_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,24;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-76_Север</t>
+  </si>
+  <si>
+    <t>17118,6</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-76_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;6,18;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-77_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-77_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,82;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-78_Север</t>
+  </si>
+  <si>
+    <t>-80,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-78_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,8;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-79_Север</t>
+  </si>
+  <si>
+    <t>-995,3</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-79_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,37;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-80_Север</t>
+  </si>
+  <si>
+    <t>-618,7</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-80_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,23;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-81_Север</t>
+  </si>
+  <si>
+    <t>-26,400002</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-81_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,66;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-82_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-82_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,77;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-83_Север</t>
+  </si>
+  <si>
+    <t>624,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-83_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,26;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-84_Север</t>
+  </si>
+  <si>
+    <t>-107,799995</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-84_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,77;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-85_Север</t>
+  </si>
+  <si>
+    <t>-1640,9</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-85_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,61;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-86_Север</t>
+  </si>
+  <si>
+    <t>3558,4</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-86_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;1,28;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-87_Север</t>
+  </si>
+  <si>
+    <t>-32,4</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-87_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,81;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-88_Север</t>
+  </si>
+  <si>
+    <t>-1368,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-88_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,57;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-89_Север</t>
+  </si>
+  <si>
+    <t>-195,6</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-89_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-1,63;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-90_Север</t>
+  </si>
+  <si>
+    <t>-124,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-90_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,31;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-91_Север</t>
+  </si>
+  <si>
+    <t>-240,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-91_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-1,6;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-92_Север</t>
+  </si>
+  <si>
+    <t>-403,19998</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-92_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,16;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-93_Север</t>
+  </si>
+  <si>
+    <t>-213,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-93_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-1,42;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-94_Север</t>
+  </si>
+  <si>
+    <t>-330,19998</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-94_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,13;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-95_Север</t>
+  </si>
+  <si>
+    <t>-52,999996</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-95_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,53;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-96_Север</t>
+  </si>
+  <si>
+    <t>-3160,2998</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-96_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-1,43;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-97_Север</t>
+  </si>
+  <si>
+    <t>-83,6</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-97_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,76;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-98_Север</t>
+  </si>
+  <si>
+    <t>-1622,3999</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-98_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,78;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-99_Север</t>
+  </si>
+  <si>
+    <t>-71,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-99_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,71;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-100_Север</t>
+  </si>
+  <si>
+    <t>-25,2</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-100_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,72;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-101_Север</t>
+  </si>
+  <si>
+    <t>814,89996</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-101_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,29;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-102_Север</t>
+  </si>
+  <si>
+    <t>-270,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-102_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-2,7;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-103_Север</t>
+  </si>
+  <si>
+    <t>953,8</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-103_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,38;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-104_Север</t>
+  </si>
+  <si>
+    <t>117,99999</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-104_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-2,36;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-105_Север</t>
+  </si>
+  <si>
+    <t>74,7</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-105_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-2,49;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-106_Север</t>
+  </si>
+  <si>
+    <t>1020,6</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-106_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,42;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-107_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-107_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,67;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-108_Север</t>
+  </si>
+  <si>
+    <t>-1191,1</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-108_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,43;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-109_Север</t>
+  </si>
+  <si>
+    <t>313,3</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-109_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,13;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-110_Север</t>
+  </si>
+  <si>
+    <t>-889,2</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-110_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,38;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-111_Север</t>
+  </si>
+  <si>
+    <t>-7,5</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-111_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,25;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-112_Север</t>
+  </si>
+  <si>
+    <t>-1084,7999</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-112_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,48;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-113_Север</t>
+  </si>
+  <si>
+    <t>10800,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-113_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;5,0;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-114_Север</t>
+  </si>
+  <si>
+    <t>-22,8</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-114_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,57;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-115_Север</t>
+  </si>
+  <si>
+    <t>-1089,6</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-115_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,48;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-116_Север</t>
+  </si>
+  <si>
+    <t>-1512,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-116_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,6;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-117_Север</t>
+  </si>
+  <si>
+    <t>-1065,6</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-117_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,48;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-118_Север</t>
+  </si>
+  <si>
+    <t>597,5</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-118_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,25;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-119_Север</t>
+  </si>
+  <si>
+    <t>-553,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-119_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-5,53;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-120_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-120_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,82;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-121_Север</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-121_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;0,11;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-122_Север</t>
+  </si>
+  <si>
+    <t>-148,5</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-122_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-1,35;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-123_Север</t>
+  </si>
+  <si>
+    <t>-6,6</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-123_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,06;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-124_Север</t>
+  </si>
+  <si>
+    <t>-7,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-124_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,07;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-125_Север</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-125_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,42;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-126_Север</t>
+  </si>
+  <si>
+    <t>-2244,0</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-126_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-1,1;Нет;Нет;Нет]]</t>
+  </si>
+  <si>
+    <t>Расч_КПР-127_Север</t>
+  </si>
+  <si>
+    <t>-333,2</t>
+  </si>
+  <si>
+    <t>[[ТИ_КПР-127_Север;1,0;Нет;Да;Нет];[PП12:ДефОЭС_Рост_Дон;-0,14;Нет;Нет;Нет]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1823,7 +6109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1841,6 +6127,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1892,24 +6189,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2192,1032 +6498,2148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
+      <selection activeCell="A561" sqref="A561:A567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125"/>
+    <col min="2" max="2" customWidth="true" width="50.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
+      <c r="C1" t="s" s="0">
+        <v>890</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>893</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>896</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>899</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>902</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>903</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>906</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>908</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>911</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>912</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>914</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>915</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>72</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
+        <v>79</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>922</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>86</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>925</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>927</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>931</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>107</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>933</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>934</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>114</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>936</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>40</v>
+        <v>121</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>938</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>939</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>944</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>945</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>42</v>
+        <v>142</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>947</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>948</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>44</v>
+        <v>149</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>950</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>46</v>
+        <v>156</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>953</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>954</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>48</v>
+        <v>163</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>956</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>50</v>
+        <v>170</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>958</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>52</v>
+        <v>176</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>183</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>56</v>
+        <v>190</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>58</v>
+        <v>197</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>971</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>60</v>
+        <v>204</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>973</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>974</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="B31" s="2">
         <v>2860</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>61</v>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>63</v>
+        <v>212</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>976</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>65</v>
+        <v>219</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>980</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>67</v>
+        <v>226</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>982</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>983</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>69</v>
+        <v>233</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>985</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>986</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>71</v>
+        <v>240</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>988</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>73</v>
+        <v>247</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>990</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>991</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>75</v>
+        <v>254</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>77</v>
+        <v>261</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="B40" s="2">
         <v>2970</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>78</v>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>80</v>
+        <v>269</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>999</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>82</v>
+        <v>276</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>84</v>
+        <v>283</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>86</v>
+        <v>290</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>1006</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>1007</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>88</v>
+        <v>297</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>1009</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>1010</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>90</v>
+        <v>304</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>1012</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>92</v>
+        <v>311</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>1015</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>94</v>
+        <v>318</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>1018</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="B49" s="2">
         <v>4060</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>95</v>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>325</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>99</v>
+        <v>326</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>1021</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>1023</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>1024</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>101</v>
+        <v>340</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>1026</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>1027</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>103</v>
+        <v>347</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>1029</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>105</v>
+        <v>354</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>1032</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>1033</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>107</v>
+        <v>361</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>113</v>
+        <v>368</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>1041</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>1042</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>1044</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>115</v>
+        <v>389</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>1047</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>1048</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>117</v>
+        <v>396</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>1050</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>119</v>
+        <v>403</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>1052</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>1053</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>121</v>
+        <v>410</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>1055</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>125</v>
+        <v>417</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>1058</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>1059</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>1061</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>127</v>
+        <v>431</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>1063</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>437</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>129</v>
+        <v>438</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>1066</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>1067</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>444</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>131</v>
+        <v>445</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>451</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>133</v>
+        <v>452</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>1072</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>1073</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>458</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>135</v>
+        <v>459</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>1075</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>1076</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>465</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>139</v>
+        <v>466</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>1079</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>1081</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>479</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>141</v>
+        <v>480</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>1084</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>1085</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>486</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>143</v>
+        <v>487</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>145</v>
+        <v>494</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>1090</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>1091</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>500</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>147</v>
+        <v>501</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>506</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>151</v>
+        <v>507</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>1096</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>1098</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>520</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>153</v>
+        <v>521</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>1100</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>1101</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>155</v>
+        <v>528</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>1103</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>1104</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>534</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>157</v>
+        <v>535</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>1106</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>889</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>159</v>
+        <v>541</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>1109</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>1110</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>161</v>
+        <v>548</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>1112</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>163</v>
+        <v>555</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>1114</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>1115</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>888</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>165</v>
+        <v>561</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>1118</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>567</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>167</v>
+        <v>568</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>1120</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>574</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>171</v>
+        <v>575</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>1123</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>1126</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>588</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>193</v>
+        <v>589</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>1129</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>615</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>195</v>
+        <v>616</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>1132</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>1133</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>622</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>197</v>
+        <v>623</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>1135</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>629</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>199</v>
+        <v>630</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>1138</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>1139</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>636</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>201</v>
+        <v>637</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>1141</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>1142</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>643</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>203</v>
+        <v>644</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>1144</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>1145</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>650</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>205</v>
+        <v>651</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>1147</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>657</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>207</v>
+        <v>658</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>1151</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>664</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>209</v>
+        <v>665</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>1153</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>671</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>211</v>
+        <v>672</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>1157</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>678</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>213</v>
+        <v>679</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>1159</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>1160</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>685</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>215</v>
+        <v>686</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>1162</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>1163</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>692</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>217</v>
+        <v>693</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>1165</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>699</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>219</v>
+        <v>700</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>1168</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>1169</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>706</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>221</v>
+        <v>707</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>1171</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>1172</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>713</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>223</v>
+        <v>714</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>1174</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>1175</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>720</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>225</v>
+        <v>721</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>1177</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>1178</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>229</v>
+        <v>728</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>1181</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>1183</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>1184</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>231</v>
+        <v>742</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>1186</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>748</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>233</v>
+        <v>749</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>1188</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>1189</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>235</v>
+        <v>756</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>1191</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>1192</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>237</v>
+        <v>763</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>1194</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>1195</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>769</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>239</v>
+        <v>770</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>776</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>243</v>
+        <v>777</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>1200</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>1201</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>1203</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>790</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>245</v>
+        <v>791</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>1206</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>1207</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>797</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>247</v>
+        <v>798</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>1209</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>1210</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>804</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>249</v>
+        <v>805</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>1212</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>1213</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>811</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>253</v>
+        <v>812</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>1215</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>1216</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>1219</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>825</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>257</v>
+        <v>826</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>1221</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>1222</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>1224</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E120" t="s" s="0">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>839</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>259</v>
+        <v>840</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>1226</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>1227</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>846</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>261</v>
+        <v>847</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>1229</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>1230</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>853</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>263</v>
+        <v>854</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>1232</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>1233</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>265</v>
+        <v>861</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>1235</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>867</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>267</v>
+        <v>868</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>1238</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>874</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>269</v>
+        <v>875</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>1240</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>1241</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>881</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>270</v>
+        <v>882</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>1243</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>1244</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
@@ -3231,93 +8653,93 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375"/>
+    <col min="2" max="2" customWidth="true" width="37.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>174</v>
+      <c r="A1" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>176</v>
+      <c r="A2" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>178</v>
+      <c r="A3" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>180</v>
+      <c r="A4" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>182</v>
+      <c r="A5" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>184</v>
+      <c r="A6" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>186</v>
+      <c r="A7" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>188</v>
+      <c r="A8" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>190</v>
+      <c r="A9" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>192</v>
+      <c r="A10" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
